--- a/Assignment/module2/assignment2/Instagram.xlsx
+++ b/Assignment/module2/assignment2/Instagram.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\assignmentsquestionexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Software Testing\Assignment\module2\assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B645C12-EDE8-4797-B2C3-019CFE8D8525}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A93122D-C1A7-4013-97C9-F818A735A6BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" activeTab="1" xr2:uid="{E3CEF092-41AF-4F1B-8FA0-DE6DCC72014F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" xr2:uid="{E3CEF092-41AF-4F1B-8FA0-DE6DCC72014F}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D1F319-81AE-4D4E-815A-F9C61AC7188C}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -934,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F1659E-E34F-44AA-A003-952AC0282654}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
